--- a/2.nat.rls.fitting/sandbox/NaturalIsolate_Bootstrap_summary_Publications.xlsx
+++ b/2.nat.rls.fitting/sandbox/NaturalIsolate_Bootstrap_summary_Publications.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="30500" windowHeight="18880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="35060" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="_Kaberlein04_Bootstrap_summary_" sheetId="1" r:id="rId1"/>
+    <sheet name="Natural isolates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,86 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
-  <si>
-    <t>0.0047 +/- 8e-04</t>
-  </si>
-  <si>
-    <t>56.2 +/- 10.1</t>
-  </si>
-  <si>
-    <t>7.9 +/- 0.825</t>
-  </si>
-  <si>
-    <t>26.6 +/- 0.566</t>
-  </si>
-  <si>
-    <t>0.0028 +/- 5e-04</t>
-  </si>
-  <si>
-    <t>16.6 +/- 1.9</t>
-  </si>
-  <si>
-    <t>8 +/- 0.3</t>
-  </si>
-  <si>
-    <t>13.96 +/- 0.337</t>
-  </si>
-  <si>
-    <t>0.0033 +/- 7e-04</t>
-  </si>
-  <si>
-    <t>65.2 +/- 7.5</t>
-  </si>
-  <si>
-    <t>7.8 +/- 0.514</t>
-  </si>
-  <si>
-    <t>34.72 +/- 1.424</t>
-  </si>
-  <si>
-    <t>0.0032 +/- 6e-04</t>
-  </si>
-  <si>
-    <t>71.4 +/- 5.7</t>
-  </si>
-  <si>
-    <t>7.6 +/- 0.468</t>
-  </si>
-  <si>
-    <t>37.72 +/- 1.119</t>
-  </si>
-  <si>
-    <t>0.0057 +/- 0.001</t>
-  </si>
-  <si>
-    <t>101.3 +/- 12.9</t>
-  </si>
-  <si>
-    <t>7.5 +/- 0.629</t>
-  </si>
-  <si>
-    <t>36.77 +/- 1.596</t>
-  </si>
-  <si>
-    <t>0.0051 +/- 0.0013</t>
-  </si>
-  <si>
-    <t>118.1 +/- 8.3</t>
-  </si>
-  <si>
-    <t>6.5 +/- 0.671</t>
-  </si>
-  <si>
-    <t>48.46 +/- 1.565</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>Strain</t>
   </si>
   <si>
-    <t>BY4742</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -119,39 +44,6 @@
     <t>Average RLS</t>
   </si>
   <si>
-    <t>SIR2OE</t>
-  </si>
-  <si>
-    <t>sir2Δ</t>
-  </si>
-  <si>
-    <t>fob1Δ</t>
-  </si>
-  <si>
-    <t>hxk2Δ</t>
-  </si>
-  <si>
-    <t>fob1Δhxk2Δ</t>
-  </si>
-  <si>
-    <t>BootstrapMean...c..strains...</t>
-  </si>
-  <si>
-    <t>RwithStd</t>
-  </si>
-  <si>
-    <t>t0withStd</t>
-  </si>
-  <si>
-    <t>nwithStd</t>
-  </si>
-  <si>
-    <t>GwithStd</t>
-  </si>
-  <si>
-    <t>avgLSwithStd</t>
-  </si>
-  <si>
     <t>101S</t>
   </si>
   <si>
@@ -164,9 +56,6 @@
     <t>6.7 +/- 0.697</t>
   </si>
   <si>
-    <t>0.16 +/- 0.023</t>
-  </si>
-  <si>
     <t>31.46 +/- 0.815</t>
   </si>
   <si>
@@ -182,9 +71,6 @@
     <t>7.1 +/- 0.76</t>
   </si>
   <si>
-    <t>0.15 +/- 0.018</t>
-  </si>
-  <si>
     <t>27.9 +/- 1.29</t>
   </si>
   <si>
@@ -200,9 +86,6 @@
     <t>7.4 +/- 0.64</t>
   </si>
   <si>
-    <t>0.16 +/- 0.015</t>
-  </si>
-  <si>
     <t>26.6 +/- 1.064</t>
   </si>
   <si>
@@ -218,9 +101,6 @@
     <t>6.6 +/- 0.637</t>
   </si>
   <si>
-    <t>0.1 +/- 0.012</t>
-  </si>
-  <si>
     <t>36.32 +/- 1.621</t>
   </si>
   <si>
@@ -236,9 +116,6 @@
     <t>8 +/- 0.109</t>
   </si>
   <si>
-    <t>0.17 +/- 0.015</t>
-  </si>
-  <si>
     <t>24.77 +/- 0.733</t>
   </si>
   <si>
@@ -254,9 +131,6 @@
     <t>6.9 +/- 1.508</t>
   </si>
   <si>
-    <t>0.13 +/- 0.016</t>
-  </si>
-  <si>
     <t>32.07 +/- 1.359</t>
   </si>
   <si>
@@ -272,9 +146,6 @@
     <t>7 +/- 0.714</t>
   </si>
   <si>
-    <t>0.18 +/- 0.024</t>
-  </si>
-  <si>
     <t>28.15 +/- 0.973</t>
   </si>
   <si>
@@ -290,9 +161,6 @@
     <t>6.7 +/- 0.616</t>
   </si>
   <si>
-    <t>0.18 +/- 0.018</t>
-  </si>
-  <si>
     <t>27.02 +/- 0.997</t>
   </si>
   <si>
@@ -305,9 +173,6 @@
     <t>7.8 +/- 0.381</t>
   </si>
   <si>
-    <t>0.09 +/- 0.008</t>
-  </si>
-  <si>
     <t>36.85 +/- 0.942</t>
   </si>
   <si>
@@ -356,9 +221,6 @@
     <t>7.9 +/- 1.341</t>
   </si>
   <si>
-    <t>0.12 +/- 0.023</t>
-  </si>
-  <si>
     <t>26.36 +/- 1.501</t>
   </si>
   <si>
@@ -374,9 +236,6 @@
     <t>7.9 +/- 1.505</t>
   </si>
   <si>
-    <t>0.12 +/- 0.018</t>
-  </si>
-  <si>
     <t>23.9 +/- 1.319</t>
   </si>
   <si>
@@ -392,9 +251,6 @@
     <t>6.5 +/- 0.486</t>
   </si>
   <si>
-    <t>0.13 +/- 0.015</t>
-  </si>
-  <si>
     <t>35.08 +/- 1.125</t>
   </si>
   <si>
@@ -410,10 +266,247 @@
     <t>6.4 +/- 0.428</t>
   </si>
   <si>
-    <t>0.15 +/- 0.012</t>
-  </si>
-  <si>
     <t>34.41 +/- 0.699</t>
+  </si>
+  <si>
+    <t>GompR</t>
+  </si>
+  <si>
+    <t>GompG</t>
+  </si>
+  <si>
+    <t>WeibAIC</t>
+  </si>
+  <si>
+    <t>GompAIC</t>
+  </si>
+  <si>
+    <t>BinomialAIC</t>
+  </si>
+  <si>
+    <t>0.0012 +/- 0.00063</t>
+  </si>
+  <si>
+    <t>0.14 +/- 0.024</t>
+  </si>
+  <si>
+    <t>582.72 +/- 16.95</t>
+  </si>
+  <si>
+    <t>589.2 +/- 20.1</t>
+  </si>
+  <si>
+    <t>608.56 +/- 12.37</t>
+  </si>
+  <si>
+    <t>0.0026 +/- 0.00117</t>
+  </si>
+  <si>
+    <t>0.13 +/- 0.017</t>
+  </si>
+  <si>
+    <t>393.19 +/- 10.51</t>
+  </si>
+  <si>
+    <t>389.76 +/- 10.11</t>
+  </si>
+  <si>
+    <t>397.27 +/- 6.96</t>
+  </si>
+  <si>
+    <t>0.003 +/- 0.0011</t>
+  </si>
+  <si>
+    <t>0.12 +/- 0.012</t>
+  </si>
+  <si>
+    <t>520.85 +/- 18.13</t>
+  </si>
+  <si>
+    <t>504 +/- 10.2</t>
+  </si>
+  <si>
+    <t>510.83 +/- 8.61</t>
+  </si>
+  <si>
+    <t>0.0021 +/- 0.00093</t>
+  </si>
+  <si>
+    <t>0.09 +/- 0.011</t>
+  </si>
+  <si>
+    <t>476.9 +/- 8.55</t>
+  </si>
+  <si>
+    <t>470.91 +/- 8.86</t>
+  </si>
+  <si>
+    <t>480.81 +/- 6.33</t>
+  </si>
+  <si>
+    <t>0.0043 +/- 0.00104</t>
+  </si>
+  <si>
+    <t>0.12 +/- 0.011</t>
+  </si>
+  <si>
+    <t>738.35 +/- 14.92</t>
+  </si>
+  <si>
+    <t>748.01 +/- 13.64</t>
+  </si>
+  <si>
+    <t>746.64 +/- 13.4</t>
+  </si>
+  <si>
+    <t>0.002 +/- 0.00073</t>
+  </si>
+  <si>
+    <t>0.11 +/- 0.011</t>
+  </si>
+  <si>
+    <t>449.76 +/- 9.87</t>
+  </si>
+  <si>
+    <t>447.31 +/- 8.14</t>
+  </si>
+  <si>
+    <t>456.56 +/- 6.9</t>
+  </si>
+  <si>
+    <t>0.0016 +/- 0.00046</t>
+  </si>
+  <si>
+    <t>0.15 +/- 0.011</t>
+  </si>
+  <si>
+    <t>402.89 +/- 10.32</t>
+  </si>
+  <si>
+    <t>411.68 +/- 8.67</t>
+  </si>
+  <si>
+    <t>419.48 +/- 9.48</t>
+  </si>
+  <si>
+    <t>0.0013 +/- 7e-04</t>
+  </si>
+  <si>
+    <t>0.16 +/- 0.018</t>
+  </si>
+  <si>
+    <t>408.27 +/- 14.11</t>
+  </si>
+  <si>
+    <t>397.81 +/- 10.93</t>
+  </si>
+  <si>
+    <t>411.9 +/- 7.43</t>
+  </si>
+  <si>
+    <t>0.004 +/- 0.00085</t>
+  </si>
+  <si>
+    <t>0.07 +/- 0.007</t>
+  </si>
+  <si>
+    <t>1321.34 +/- 14.32</t>
+  </si>
+  <si>
+    <t>1343.21 +/- 17.23</t>
+  </si>
+  <si>
+    <t>1339.61 +/- 14.58</t>
+  </si>
+  <si>
+    <t>4e-04 +/- 0.00018</t>
+  </si>
+  <si>
+    <t>0.16 +/- 0.016</t>
+  </si>
+  <si>
+    <t>401.29 +/- 10.71</t>
+  </si>
+  <si>
+    <t>404.45 +/- 10.6</t>
+  </si>
+  <si>
+    <t>431.77 +/- 5.99</t>
+  </si>
+  <si>
+    <t>0.0011 +/- 0.00047</t>
+  </si>
+  <si>
+    <t>470.48 +/- 11.35</t>
+  </si>
+  <si>
+    <t>466.79 +/- 10.27</t>
+  </si>
+  <si>
+    <t>481.52 +/- 6.92</t>
+  </si>
+  <si>
+    <t>0.0062 +/- 0.00202</t>
+  </si>
+  <si>
+    <t>0.09 +/- 0.016</t>
+  </si>
+  <si>
+    <t>309.61 +/- 9.31</t>
+  </si>
+  <si>
+    <t>310.8 +/- 8.3</t>
+  </si>
+  <si>
+    <t>312.08 +/- 8.13</t>
+  </si>
+  <si>
+    <t>0.0077 +/- 0.00234</t>
+  </si>
+  <si>
+    <t>439.51 +/- 8.84</t>
+  </si>
+  <si>
+    <t>435.81 +/- 7.11</t>
+  </si>
+  <si>
+    <t>438.37 +/- 7.38</t>
+  </si>
+  <si>
+    <t>0.0011 +/- 0.00045</t>
+  </si>
+  <si>
+    <t>507.62 +/- 12.55</t>
+  </si>
+  <si>
+    <t>506.89 +/- 11.38</t>
+  </si>
+  <si>
+    <t>522.34 +/- 8.71</t>
+  </si>
+  <si>
+    <t>8e-04 +/- 0.00023</t>
+  </si>
+  <si>
+    <t>0.13 +/- 0.01</t>
+  </si>
+  <si>
+    <t>923.64 +/- 14.97</t>
+  </si>
+  <si>
+    <t>922.83 +/- 15.07</t>
+  </si>
+  <si>
+    <t>957.15 +/- 10.43</t>
+  </si>
+  <si>
+    <t>Network Model</t>
+  </si>
+  <si>
+    <t>AIC Comprison</t>
+  </si>
+  <si>
+    <t>Gomperz Model</t>
   </si>
 </sst>
 </file>
@@ -478,13 +571,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,462 +858,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="11" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="G13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="I14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>128</v>
+      <c r="G18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2.nat.rls.fitting/sandbox/NaturalIsolate_Bootstrap_summary_Publications.xlsx
+++ b/2.nat.rls.fitting/sandbox/NaturalIsolate_Bootstrap_summary_Publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="35060" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="1620" windowWidth="33520" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Natural isolates" sheetId="1" r:id="rId1"/>
@@ -269,21 +269,6 @@
     <t>34.41 +/- 0.699</t>
   </si>
   <si>
-    <t>GompR</t>
-  </si>
-  <si>
-    <t>GompG</t>
-  </si>
-  <si>
-    <t>WeibAIC</t>
-  </si>
-  <si>
-    <t>GompAIC</t>
-  </si>
-  <si>
-    <t>BinomialAIC</t>
-  </si>
-  <si>
     <t>0.0012 +/- 0.00063</t>
   </si>
   <si>
@@ -503,10 +488,25 @@
     <t>Network Model</t>
   </si>
   <si>
-    <t>AIC Comprison</t>
-  </si>
-  <si>
     <t>Gomperz Model</t>
+  </si>
+  <si>
+    <t>AIC Comparison</t>
+  </si>
+  <si>
+    <t>Gompertz R</t>
+  </si>
+  <si>
+    <t>Gompertz G</t>
+  </si>
+  <si>
+    <t>Weibull AIC</t>
+  </si>
+  <si>
+    <t>Gompertz AIC</t>
+  </si>
+  <si>
+    <t>Network AIC</t>
   </si>
 </sst>
 </file>
@@ -571,15 +571,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -875,534 +879,535 @@
     <col min="7" max="11" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
+    <row r="5" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    <row r="6" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
+    <row r="7" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
+    <row r="8" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K12" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="3" t="s">
+    <row r="13" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="3" t="s">
+    <row r="14" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="3" t="s">
+    </row>
+    <row r="15" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I15" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J15" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K15" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="3" t="s">
+    <row r="16" spans="2:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K16" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="3" t="s">
+    </row>
+    <row r="17" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="J17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="3" t="s">
+    </row>
+    <row r="18" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K18" s="6" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
